--- a/Report of Foresty_20231026/林業署前後測結果/圖表.xlsx
+++ b/Report of Foresty_20231026/林業署前後測結果/圖表.xlsx
@@ -1,65 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20231026\林業署前後測結果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wetin\Desktop\R\Macaca-population-trend\Report of Foresty_20231026\林業署前後測結果\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AEE127D-E93B-4F16-8DD0-B1FD6087BCE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="總分" sheetId="4" r:id="rId2"/>
     <sheet name="pair-T" sheetId="8" r:id="rId3"/>
     <sheet name="各題" sheetId="3" r:id="rId4"/>
-    <sheet name="綜合" sheetId="6" r:id="rId5"/>
-    <sheet name="工作表1" sheetId="9" r:id="rId6"/>
+    <sheet name="工作表2" sheetId="10" r:id="rId5"/>
+    <sheet name="綜合" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$BG$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">總分!$A$1:$I$257</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">總分!$C$2:$C$257</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">總分!$G$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">總分!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">總分!$F$2:$F$257</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">總分!$L$2:$L$129</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">總分!$R$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">總分!$R$2:$R$129</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">總分!$H$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">總分!$R$2:$R$129</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">總分!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">總分!$H$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">總分!$H$2:$H$257</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">總分!$M$2:$M$129</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">總分!$R$2:$R$129</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">總分!$N$2:$N$129</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">總分!$L$2:$L$129</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">總分!$Q$2:$Q$129</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">總分!$L$2:$L$129</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">總分!$G$2:$G$257</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">總分!$N$2:$N$129</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">總分!$M$2:$M$129</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">總分!$H$2:$H$257</definedName>
     <definedName name="_xlchart.v1.20" hidden="1">總分!$P$2:$P$129</definedName>
     <definedName name="_xlchart.v1.21" hidden="1">總分!$M$2:$M$129</definedName>
     <definedName name="_xlchart.v1.22" hidden="1">總分!$O$2:$O$129</definedName>
     <definedName name="_xlchart.v1.23" hidden="1">總分!$M$2:$M$129</definedName>
     <definedName name="_xlchart.v1.24" hidden="1">總分!$Q$2:$Q$129</definedName>
     <definedName name="_xlchart.v1.25" hidden="1">總分!$L$2:$L$129</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">總分!$O$2:$O$129</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">總分!$M$2:$M$129</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">總分!$N$2:$N$129</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">總分!$Q$2:$Q$129</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">總分!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">總分!$E$2:$E$257</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">總分!$C$2:$C$257</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">總分!$G$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">總分!$H$2:$H$257</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">總分!$L$2:$L$129</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">總分!$N$2:$N$129</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">總分!$M$2:$M$129</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">總分!$P$2:$P$129</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">總分!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">總分!$D$2:$D$257</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">總分!$C$2:$C$257</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">總分!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">總分!$E$2:$E$257</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">總分!$L$2:$L$129</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">總分!$P$2:$P$129</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">總分!$F$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">總分!$F$2:$F$257</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">總分!$D$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">總分!$D$2:$D$257</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">總分!$C$2:$C$257</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">總分!$G$1</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">總分!$H$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">總分!$G$2:$G$257</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">總分!$L$2:$L$129</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">總分!$O$2:$O$129</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">總分!$H$2:$H$257</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">總分!$M$2:$M$129</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">總分!$R$2:$R$129</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">總分!$L$2:$L$129</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">總分!$R$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1158,7 +1179,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
@@ -1312,7 +1333,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1666,7 +1686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2040,7 +2059,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -2477,7 +2495,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -2914,7 +2931,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="0"/>
@@ -3069,7 +3085,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3423,7 +3438,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3515,7 +3529,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3869,7 +3882,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3961,7 +3973,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4315,7 +4326,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4407,7 +4417,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4761,7 +4770,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4853,7 +4861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5207,7 +5214,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5653,8 +5659,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>正確</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="zh-TW" b="0"/>
-                  <a:t>答對的人數比例</a:t>
+                  <a:t>人數比例</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
@@ -5751,7 +5761,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6185,8 +6194,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>正確</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="zh-TW" b="0"/>
-                  <a:t>答對的人數比例</a:t>
+                  <a:t>人數比例</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
@@ -6257,7 +6270,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6691,8 +6703,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
+                  <a:t>正確</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="zh-TW" b="0"/>
-                  <a:t>答對的人數比例</a:t>
+                  <a:t>人數比例</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-TW" altLang="en-US" b="0"/>
@@ -6763,7 +6779,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6828,10 +6843,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6841,8 +6856,8 @@
         <cx:series layoutId="boxWhisker" uniqueId="{44FD017A-562C-4CF8-90A8-D919B035A06F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
-              <cx:v>score_綜合</cx:v>
+              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:v>總分</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:spPr>
@@ -6882,7 +6897,7 @@
         </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="105"/>
+        <cx:valScaling/>
         <cx:majorTickMarks type="in"/>
         <cx:tickLabels/>
         <cx:spPr>
@@ -6919,10 +6934,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6950,7 +6965,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B189EDD7-DB6F-454A-8F45-0ACE4167A1A3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>score_照片</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7038,10 +7053,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7069,7 +7084,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{858F3FEE-41D0-4456-8696-775639FF9819}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>score_聲音</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7157,10 +7172,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7188,7 +7203,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BD20946A-BB24-4544-82A6-10585A6EF9AC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>score_方法</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7276,10 +7291,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.38</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7307,7 +7322,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{858F3FEE-41D0-4456-8696-775639FF9819}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>score_綜合</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7395,10 +7410,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7483,10 +7498,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.12</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7521,7 +7536,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D7808C5B-B987-4D1A-9AC0-CD736B802A6E}" formatIdx="1">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.13</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>總分diff</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7577,10 +7592,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7646,10 +7661,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.32</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.33</cx:f>
+        <cx:f>_xlchart.v1.18</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7684,6 +7699,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D7808C5B-B987-4D1A-9AC0-CD736B802A6E}" formatIdx="1">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -7794,10 +7810,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.42</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7832,6 +7848,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D7808C5B-B987-4D1A-9AC0-CD736B802A6E}" formatIdx="1">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -7887,10 +7904,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.34</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.35</cx:f>
+        <cx:f>_xlchart.v1.20</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7957,10 +7974,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7995,6 +8012,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D7808C5B-B987-4D1A-9AC0-CD736B802A6E}" formatIdx="1">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -8121,10 +8139,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8159,6 +8177,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D7808C5B-B987-4D1A-9AC0-CD736B802A6E}" formatIdx="1">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v/>
             </cx:txData>
           </cx:tx>
@@ -16566,21 +16585,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>142874</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>363855</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="8" name="圖表 7"/>
+            <xdr:cNvPr id="8" name="圖表 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -16603,6 +16628,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="23693437" y="288130"/>
+              <a:ext cx="5429249" cy="5010151"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -16648,7 +16677,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="22" name="圖表 21"/>
+            <xdr:cNvPr id="22" name="圖表 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -16671,6 +16706,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12049125" y="11249025"/>
+              <a:ext cx="1935480" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -16716,7 +16755,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="23" name="圖表 22"/>
+            <xdr:cNvPr id="23" name="圖表 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -16739,6 +16784,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14487525" y="11249025"/>
+              <a:ext cx="2499360" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -16784,7 +16833,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="24" name="圖表 23"/>
+            <xdr:cNvPr id="24" name="圖表 23">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -16807,6 +16862,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12049125" y="16011525"/>
+              <a:ext cx="1935480" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -16852,7 +16911,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="25" name="圖表 24"/>
+            <xdr:cNvPr id="25" name="圖表 24">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -16875,6 +16940,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14464665" y="16011525"/>
+              <a:ext cx="2499360" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -16920,7 +16989,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="26" name="圖表 25"/>
+            <xdr:cNvPr id="26" name="圖表 25">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -16943,6 +17018,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12110085" y="20415885"/>
+              <a:ext cx="1935480" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -16988,7 +17067,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="27" name="圖表 26"/>
+            <xdr:cNvPr id="27" name="圖表 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17011,6 +17096,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14457045" y="20393025"/>
+              <a:ext cx="2499360" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17056,7 +17145,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="28" name="圖表 27"/>
+            <xdr:cNvPr id="28" name="圖表 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17079,6 +17174,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12049125" y="24965025"/>
+              <a:ext cx="1935480" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17124,7 +17223,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="29" name="圖表 28"/>
+            <xdr:cNvPr id="29" name="圖表 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17147,6 +17252,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14388465" y="25010745"/>
+              <a:ext cx="2499360" cy="4015740"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17192,7 +17301,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="30" name="圖表 29"/>
+            <xdr:cNvPr id="30" name="圖表 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17215,6 +17330,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14649450" y="238125"/>
+              <a:ext cx="3095625" cy="4257675"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17260,7 +17379,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="31" name="圖表 30"/>
+            <xdr:cNvPr id="31" name="圖表 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17283,6 +17408,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17859376" y="276226"/>
+              <a:ext cx="2695574" cy="4248150"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17328,7 +17457,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="32" name="圖表 31"/>
+            <xdr:cNvPr id="32" name="圖表 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17351,6 +17486,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11772900" y="238126"/>
+              <a:ext cx="2809875" cy="4248150"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17396,7 +17535,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="33" name="圖表 32"/>
+            <xdr:cNvPr id="33" name="圖表 32">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17419,6 +17564,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="20916900" y="352425"/>
+              <a:ext cx="2695574" cy="4257675"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17464,7 +17613,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="36" name="圖表 35"/>
+            <xdr:cNvPr id="36" name="圖表 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17487,6 +17642,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12049125" y="29346526"/>
+              <a:ext cx="1943100" cy="4933950"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17532,7 +17691,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="37" name="圖表 36"/>
+            <xdr:cNvPr id="37" name="圖表 36">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -17555,6 +17720,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14487525" y="29346525"/>
+              <a:ext cx="2499360" cy="4981575"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -17603,7 +17772,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="圖表 12"/>
+        <xdr:cNvPr id="13" name="圖表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17633,7 +17808,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="圖表 13"/>
+        <xdr:cNvPr id="14" name="圖表 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17663,7 +17844,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="圖表 14"/>
+        <xdr:cNvPr id="15" name="圖表 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17693,7 +17880,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="圖表 15"/>
+        <xdr:cNvPr id="16" name="圖表 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17723,7 +17916,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="17" name="圖表 16"/>
+        <xdr:cNvPr id="17" name="圖表 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17753,7 +17952,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="18" name="圖表 17"/>
+        <xdr:cNvPr id="18" name="圖表 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17783,7 +17988,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="19" name="圖表 18"/>
+        <xdr:cNvPr id="19" name="圖表 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17813,7 +18024,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="20" name="圖表 19"/>
+        <xdr:cNvPr id="20" name="圖表 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17843,7 +18060,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="21" name="圖表 20"/>
+        <xdr:cNvPr id="21" name="圖表 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17878,7 +18101,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="圖表 3"/>
+        <xdr:cNvPr id="4" name="圖表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17908,7 +18137,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvPr id="5" name="圖表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -17938,7 +18173,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvPr id="6" name="圖表 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -18234,7 +18475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG257"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
@@ -18242,9 +18483,9 @@
       <selection pane="topRight" activeCell="BH5" sqref="BH5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18423,7 +18664,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -18599,7 +18840,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>4</v>
       </c>
@@ -18775,7 +19016,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -18951,7 +19192,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -19127,7 +19368,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>8</v>
       </c>
@@ -19303,7 +19544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>9</v>
       </c>
@@ -19479,7 +19720,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
@@ -19655,7 +19896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>11</v>
       </c>
@@ -19831,7 +20072,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>12</v>
       </c>
@@ -20007,7 +20248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>13</v>
       </c>
@@ -20183,7 +20424,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>14</v>
       </c>
@@ -20359,7 +20600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>15</v>
       </c>
@@ -20535,7 +20776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>16</v>
       </c>
@@ -20711,7 +20952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>17</v>
       </c>
@@ -20887,7 +21128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>18</v>
       </c>
@@ -21063,7 +21304,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37</v>
       </c>
@@ -21239,7 +21480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>38</v>
       </c>
@@ -21415,7 +21656,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>39</v>
       </c>
@@ -21591,7 +21832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42</v>
       </c>
@@ -21767,7 +22008,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43</v>
       </c>
@@ -21943,7 +22184,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>44</v>
       </c>
@@ -22119,7 +22360,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45</v>
       </c>
@@ -22295,7 +22536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>46</v>
       </c>
@@ -22471,7 +22712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>47</v>
       </c>
@@ -22647,7 +22888,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>48</v>
       </c>
@@ -22823,7 +23064,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>49</v>
       </c>
@@ -22999,7 +23240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>50</v>
       </c>
@@ -23175,7 +23416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>51</v>
       </c>
@@ -23351,7 +23592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>52</v>
       </c>
@@ -23527,7 +23768,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>53</v>
       </c>
@@ -23703,7 +23944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>54</v>
       </c>
@@ -23879,7 +24120,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>55</v>
       </c>
@@ -24055,7 +24296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>56</v>
       </c>
@@ -24231,7 +24472,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>57</v>
       </c>
@@ -24407,7 +24648,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>58</v>
       </c>
@@ -24583,7 +24824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>59</v>
       </c>
@@ -24759,7 +25000,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>60</v>
       </c>
@@ -24935,7 +25176,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>61</v>
       </c>
@@ -25111,7 +25352,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>62</v>
       </c>
@@ -25287,7 +25528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>63</v>
       </c>
@@ -25463,7 +25704,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>75</v>
       </c>
@@ -25639,7 +25880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>76</v>
       </c>
@@ -25815,7 +26056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="44" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>77</v>
       </c>
@@ -25991,7 +26232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="45" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>80</v>
       </c>
@@ -26167,7 +26408,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>81</v>
       </c>
@@ -26343,7 +26584,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>82</v>
       </c>
@@ -26519,7 +26760,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>83</v>
       </c>
@@ -26695,7 +26936,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>84</v>
       </c>
@@ -26871,7 +27112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>85</v>
       </c>
@@ -27047,7 +27288,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>86</v>
       </c>
@@ -27223,7 +27464,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>119</v>
       </c>
@@ -27399,7 +27640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>120</v>
       </c>
@@ -27575,7 +27816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>122</v>
       </c>
@@ -27751,7 +27992,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>123</v>
       </c>
@@ -27927,7 +28168,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>124</v>
       </c>
@@ -28103,7 +28344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>125</v>
       </c>
@@ -28279,7 +28520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>126</v>
       </c>
@@ -28455,7 +28696,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>127</v>
       </c>
@@ -28631,7 +28872,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>128</v>
       </c>
@@ -28807,7 +29048,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:59" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>129</v>
       </c>
@@ -28983,7 +29224,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2</v>
       </c>
@@ -29159,7 +29400,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>4</v>
       </c>
@@ -29335,7 +29576,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>6</v>
       </c>
@@ -29511,7 +29752,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>7</v>
       </c>
@@ -29687,7 +29928,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>8</v>
       </c>
@@ -29863,7 +30104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>9</v>
       </c>
@@ -30039,7 +30280,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>10</v>
       </c>
@@ -30215,7 +30456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>11</v>
       </c>
@@ -30391,7 +30632,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>12</v>
       </c>
@@ -30567,7 +30808,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>13</v>
       </c>
@@ -30743,7 +30984,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>14</v>
       </c>
@@ -30919,7 +31160,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>15</v>
       </c>
@@ -31095,7 +31336,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>16</v>
       </c>
@@ -31271,7 +31512,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="75" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>17</v>
       </c>
@@ -31447,7 +31688,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>18</v>
       </c>
@@ -31623,7 +31864,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>37</v>
       </c>
@@ -31799,7 +32040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>38</v>
       </c>
@@ -31975,7 +32216,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>39</v>
       </c>
@@ -32151,7 +32392,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="80" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>42</v>
       </c>
@@ -32327,7 +32568,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>43</v>
       </c>
@@ -32503,7 +32744,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>44</v>
       </c>
@@ -32679,7 +32920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>45</v>
       </c>
@@ -32855,7 +33096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>46</v>
       </c>
@@ -33031,7 +33272,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>47</v>
       </c>
@@ -33207,7 +33448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>48</v>
       </c>
@@ -33383,7 +33624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>49</v>
       </c>
@@ -33559,7 +33800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>50</v>
       </c>
@@ -33735,7 +33976,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>51</v>
       </c>
@@ -33911,7 +34152,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>52</v>
       </c>
@@ -34087,7 +34328,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>53</v>
       </c>
@@ -34263,7 +34504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>54</v>
       </c>
@@ -34439,7 +34680,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="93" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>55</v>
       </c>
@@ -34615,7 +34856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>56</v>
       </c>
@@ -34791,7 +35032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="95" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>57</v>
       </c>
@@ -34967,7 +35208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>58</v>
       </c>
@@ -35143,7 +35384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="97" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>59</v>
       </c>
@@ -35319,7 +35560,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>60</v>
       </c>
@@ -35495,7 +35736,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>61</v>
       </c>
@@ -35671,7 +35912,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>62</v>
       </c>
@@ -35847,7 +36088,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>63</v>
       </c>
@@ -36023,7 +36264,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>75</v>
       </c>
@@ -36199,7 +36440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>76</v>
       </c>
@@ -36375,7 +36616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="104" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>77</v>
       </c>
@@ -36551,7 +36792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="105" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>80</v>
       </c>
@@ -36727,7 +36968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>81</v>
       </c>
@@ -36903,7 +37144,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>82</v>
       </c>
@@ -37079,7 +37320,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>83</v>
       </c>
@@ -37255,7 +37496,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>84</v>
       </c>
@@ -37431,7 +37672,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="110" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>85</v>
       </c>
@@ -37607,7 +37848,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>86</v>
       </c>
@@ -37783,7 +38024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>119</v>
       </c>
@@ -37959,7 +38200,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>120</v>
       </c>
@@ -38135,7 +38376,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>122</v>
       </c>
@@ -38311,7 +38552,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>123</v>
       </c>
@@ -38487,7 +38728,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>124</v>
       </c>
@@ -38663,7 +38904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="117" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>125</v>
       </c>
@@ -38839,7 +39080,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="118" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>126</v>
       </c>
@@ -39015,7 +39256,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>127</v>
       </c>
@@ -39191,7 +39432,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>128</v>
       </c>
@@ -39367,7 +39608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:59" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>129</v>
       </c>
@@ -39543,7 +39784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>19</v>
       </c>
@@ -39722,7 +39963,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>20</v>
       </c>
@@ -39901,7 +40142,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="124" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>21</v>
       </c>
@@ -40080,7 +40321,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="125" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>22</v>
       </c>
@@ -40256,7 +40497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="126" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>24</v>
       </c>
@@ -40432,7 +40673,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="127" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>25</v>
       </c>
@@ -40608,7 +40849,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="128" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>26</v>
       </c>
@@ -40784,7 +41025,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="129" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>28</v>
       </c>
@@ -40960,7 +41201,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="130" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>29</v>
       </c>
@@ -41136,7 +41377,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>30</v>
       </c>
@@ -41312,7 +41553,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>31</v>
       </c>
@@ -41488,7 +41729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>32</v>
       </c>
@@ -41664,7 +41905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="134" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>33</v>
       </c>
@@ -41840,7 +42081,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="135" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>34</v>
       </c>
@@ -42016,7 +42257,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="136" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>35</v>
       </c>
@@ -42192,7 +42433,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="137" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>36</v>
       </c>
@@ -42368,7 +42609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="138" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>41</v>
       </c>
@@ -42544,7 +42785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="139" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>64</v>
       </c>
@@ -42720,7 +42961,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="140" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>65</v>
       </c>
@@ -42899,7 +43140,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="141" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>66</v>
       </c>
@@ -43078,7 +43319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>67</v>
       </c>
@@ -43254,7 +43495,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="143" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>68</v>
       </c>
@@ -43430,7 +43671,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="144" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>69</v>
       </c>
@@ -43606,7 +43847,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>70</v>
       </c>
@@ -43782,7 +44023,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>71</v>
       </c>
@@ -43958,7 +44199,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="147" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>72</v>
       </c>
@@ -44134,7 +44375,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="148" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>74</v>
       </c>
@@ -44310,7 +44551,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="149" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>78</v>
       </c>
@@ -44486,7 +44727,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="150" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>79</v>
       </c>
@@ -44662,7 +44903,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="151" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>87</v>
       </c>
@@ -44841,7 +45082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>88</v>
       </c>
@@ -45020,7 +45261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="153" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>89</v>
       </c>
@@ -45199,7 +45440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="154" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>90</v>
       </c>
@@ -45378,7 +45619,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="155" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>91</v>
       </c>
@@ -45554,7 +45795,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="156" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>92</v>
       </c>
@@ -45730,7 +45971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="157" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>93</v>
       </c>
@@ -45906,7 +46147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="158" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>94</v>
       </c>
@@ -46082,7 +46323,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="159" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>95</v>
       </c>
@@ -46258,7 +46499,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>96</v>
       </c>
@@ -46434,7 +46675,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>97</v>
       </c>
@@ -46610,7 +46851,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="162" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>98</v>
       </c>
@@ -46789,7 +47030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="163" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>99</v>
       </c>
@@ -46965,7 +47206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="164" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>100</v>
       </c>
@@ -47144,7 +47385,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="165" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>101</v>
       </c>
@@ -47323,7 +47564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="166" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>102</v>
       </c>
@@ -47499,7 +47740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="167" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>103</v>
       </c>
@@ -47675,7 +47916,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="168" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>104</v>
       </c>
@@ -47851,7 +48092,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="169" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>105</v>
       </c>
@@ -48027,7 +48268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>107</v>
       </c>
@@ -48203,7 +48444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="171" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>108</v>
       </c>
@@ -48379,7 +48620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="172" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>109</v>
       </c>
@@ -48555,7 +48796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>110</v>
       </c>
@@ -48734,7 +48975,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="174" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>111</v>
       </c>
@@ -48910,7 +49151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="175" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>112</v>
       </c>
@@ -49086,7 +49327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="176" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>113</v>
       </c>
@@ -49262,7 +49503,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="177" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>114</v>
       </c>
@@ -49438,7 +49679,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>115</v>
       </c>
@@ -49614,7 +49855,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>116</v>
       </c>
@@ -49790,7 +50031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="180" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>117</v>
       </c>
@@ -49966,7 +50207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="181" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>130</v>
       </c>
@@ -50142,7 +50383,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="182" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>131</v>
       </c>
@@ -50318,7 +50559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="183" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>132</v>
       </c>
@@ -50494,7 +50735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>133</v>
       </c>
@@ -50670,7 +50911,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="185" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>134</v>
       </c>
@@ -50846,7 +51087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="186" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>135</v>
       </c>
@@ -51022,7 +51263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="187" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>136</v>
       </c>
@@ -51198,7 +51439,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="188" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>137</v>
       </c>
@@ -51374,7 +51615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="189" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>138</v>
       </c>
@@ -51550,7 +51791,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="190" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4">
         <v>19</v>
       </c>
@@ -51729,7 +51970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="191" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4">
         <v>20</v>
       </c>
@@ -51908,7 +52149,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="192" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4">
         <v>21</v>
       </c>
@@ -52087,7 +52328,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="193" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4">
         <v>22</v>
       </c>
@@ -52263,7 +52504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="194" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4">
         <v>24</v>
       </c>
@@ -52439,7 +52680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="195" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4">
         <v>25</v>
       </c>
@@ -52615,7 +52856,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4">
         <v>26</v>
       </c>
@@ -52791,7 +53032,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4">
         <v>28</v>
       </c>
@@ -52967,7 +53208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4">
         <v>29</v>
       </c>
@@ -53143,7 +53384,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="199" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4">
         <v>30</v>
       </c>
@@ -53319,7 +53560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="200" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4">
         <v>31</v>
       </c>
@@ -53495,7 +53736,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="201" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4">
         <v>32</v>
       </c>
@@ -53671,7 +53912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="202" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4">
         <v>33</v>
       </c>
@@ -53847,7 +54088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="203" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4">
         <v>34</v>
       </c>
@@ -54023,7 +54264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="204" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4">
         <v>35</v>
       </c>
@@ -54199,7 +54440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="205" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4">
         <v>36</v>
       </c>
@@ -54375,7 +54616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="206" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4">
         <v>41</v>
       </c>
@@ -54551,7 +54792,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="207" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4">
         <v>64</v>
       </c>
@@ -54727,7 +54968,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="208" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4">
         <v>65</v>
       </c>
@@ -54906,7 +55147,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="209" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4">
         <v>66</v>
       </c>
@@ -55085,7 +55326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="210" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4">
         <v>67</v>
       </c>
@@ -55261,7 +55502,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="211" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4">
         <v>68</v>
       </c>
@@ -55437,7 +55678,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="212" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4">
         <v>69</v>
       </c>
@@ -55613,7 +55854,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="213" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4">
         <v>70</v>
       </c>
@@ -55789,7 +56030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="214" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4">
         <v>71</v>
       </c>
@@ -55965,7 +56206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="215" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4">
         <v>72</v>
       </c>
@@ -56141,7 +56382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="216" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4">
         <v>74</v>
       </c>
@@ -56317,7 +56558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="217" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4">
         <v>78</v>
       </c>
@@ -56493,7 +56734,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="218" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4">
         <v>79</v>
       </c>
@@ -56669,7 +56910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="219" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4">
         <v>87</v>
       </c>
@@ -56848,7 +57089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="220" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4">
         <v>88</v>
       </c>
@@ -57027,7 +57268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="221" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4">
         <v>89</v>
       </c>
@@ -57206,7 +57447,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="222" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4">
         <v>90</v>
       </c>
@@ -57385,7 +57626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4">
         <v>91</v>
       </c>
@@ -57561,7 +57802,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="224" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4">
         <v>92</v>
       </c>
@@ -57737,7 +57978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4">
         <v>93</v>
       </c>
@@ -57913,7 +58154,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="226" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4">
         <v>94</v>
       </c>
@@ -58089,7 +58330,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="227" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4">
         <v>95</v>
       </c>
@@ -58265,7 +58506,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="228" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4">
         <v>96</v>
       </c>
@@ -58441,7 +58682,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4">
         <v>97</v>
       </c>
@@ -58617,7 +58858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="230" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4">
         <v>98</v>
       </c>
@@ -58796,7 +59037,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="231" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4">
         <v>99</v>
       </c>
@@ -58972,7 +59213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="232" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4">
         <v>100</v>
       </c>
@@ -59151,7 +59392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="233" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4">
         <v>101</v>
       </c>
@@ -59330,7 +59571,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="234" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4">
         <v>102</v>
       </c>
@@ -59506,7 +59747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="235" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4">
         <v>103</v>
       </c>
@@ -59682,7 +59923,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="236" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4">
         <v>104</v>
       </c>
@@ -59858,7 +60099,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4">
         <v>105</v>
       </c>
@@ -60034,7 +60275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4">
         <v>107</v>
       </c>
@@ -60210,7 +60451,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4">
         <v>108</v>
       </c>
@@ -60386,7 +60627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="240" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4">
         <v>109</v>
       </c>
@@ -60562,7 +60803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="241" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4">
         <v>110</v>
       </c>
@@ -60741,7 +60982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4">
         <v>111</v>
       </c>
@@ -60917,7 +61158,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="243" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4">
         <v>112</v>
       </c>
@@ -61093,7 +61334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4">
         <v>113</v>
       </c>
@@ -61269,7 +61510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="245" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4">
         <v>114</v>
       </c>
@@ -61445,7 +61686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="246" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4">
         <v>115</v>
       </c>
@@ -61621,7 +61862,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="247" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4">
         <v>116</v>
       </c>
@@ -61797,7 +62038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="248" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4">
         <v>117</v>
       </c>
@@ -61973,7 +62214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="249" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4">
         <v>130</v>
       </c>
@@ -62149,7 +62390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="250" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4">
         <v>131</v>
       </c>
@@ -62325,7 +62566,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="251" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4">
         <v>132</v>
       </c>
@@ -62501,7 +62742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="252" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4">
         <v>133</v>
       </c>
@@ -62677,7 +62918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="253" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4">
         <v>134</v>
       </c>
@@ -62853,7 +63094,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="254" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4">
         <v>135</v>
       </c>
@@ -63029,7 +63270,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="255" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4">
         <v>136</v>
       </c>
@@ -63205,7 +63446,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="256" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4">
         <v>137</v>
       </c>
@@ -63381,7 +63622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="257" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4">
         <v>138</v>
       </c>
@@ -63558,8 +63799,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG257"/>
-  <sortState ref="A2:BG257">
+  <autoFilter ref="A1:BG257" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BG257">
     <sortCondition descending="1" ref="C2:C257"/>
     <sortCondition ref="H2:H257"/>
   </sortState>
@@ -63570,24 +63811,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R257"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -63640,7 +63881,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -63698,7 +63939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -63756,7 +63997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -63814,7 +64055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -63872,7 +64113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -63930,7 +64171,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -63988,7 +64229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -64046,7 +64287,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -64104,7 +64345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -64162,7 +64403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>142</v>
       </c>
@@ -64220,7 +64461,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>143</v>
       </c>
@@ -64278,7 +64519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -64336,7 +64577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>166</v>
       </c>
@@ -64394,7 +64635,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>172</v>
       </c>
@@ -64452,7 +64693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -64510,7 +64751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -64568,7 +64809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -64626,7 +64867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>222</v>
       </c>
@@ -64684,7 +64925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>225</v>
       </c>
@@ -64742,7 +64983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>228</v>
       </c>
@@ -64800,7 +65041,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -64858,7 +65099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>208</v>
       </c>
@@ -64916,7 +65157,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -64974,7 +65215,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -65032,7 +65273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -65090,7 +65331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>123</v>
       </c>
@@ -65148,7 +65389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -65206,7 +65447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -65264,7 +65505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>130</v>
       </c>
@@ -65322,7 +65563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -65380,7 +65621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -65438,7 +65679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -65496,7 +65737,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -65554,7 +65795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -65612,7 +65853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>166</v>
       </c>
@@ -65670,7 +65911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>172</v>
       </c>
@@ -65728,7 +65969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>173</v>
       </c>
@@ -65786,7 +66027,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>216</v>
       </c>
@@ -65844,7 +66085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>220</v>
       </c>
@@ -65902,7 +66143,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>222</v>
       </c>
@@ -65960,7 +66201,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>225</v>
       </c>
@@ -66018,7 +66259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>228</v>
       </c>
@@ -66076,7 +66317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -66134,7 +66375,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -66192,7 +66433,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -66250,7 +66491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -66308,7 +66549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -66366,7 +66607,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -66424,7 +66665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>78</v>
       </c>
@@ -66482,7 +66723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -66540,7 +66781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -66598,7 +66839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>85</v>
       </c>
@@ -66656,7 +66897,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>86</v>
       </c>
@@ -66714,7 +66955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -66772,7 +67013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -66830,7 +67071,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -66888,7 +67129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -66946,7 +67187,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -67004,7 +67245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -67062,7 +67303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -67120,7 +67361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -67178,7 +67419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -67236,7 +67477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -67294,7 +67535,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -67352,7 +67593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -67410,7 +67651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>132</v>
       </c>
@@ -67468,7 +67709,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>133</v>
       </c>
@@ -67526,7 +67767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -67584,7 +67825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -67642,7 +67883,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -67700,7 +67941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>138</v>
       </c>
@@ -67758,7 +67999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -67816,7 +68057,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -67874,7 +68115,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -67932,7 +68173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>159</v>
       </c>
@@ -67990,7 +68231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -68048,7 +68289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>168</v>
       </c>
@@ -68106,7 +68347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>169</v>
       </c>
@@ -68164,7 +68405,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>170</v>
       </c>
@@ -68222,7 +68463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>213</v>
       </c>
@@ -68280,7 +68521,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>218</v>
       </c>
@@ -68338,7 +68579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -68396,7 +68637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>226</v>
       </c>
@@ -68454,7 +68695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>227</v>
       </c>
@@ -68512,7 +68753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>91</v>
       </c>
@@ -68570,7 +68811,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -68628,7 +68869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -68686,7 +68927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>98</v>
       </c>
@@ -68744,7 +68985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>100</v>
       </c>
@@ -68802,7 +69043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>101</v>
       </c>
@@ -68860,7 +69101,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>102</v>
       </c>
@@ -68918,7 +69159,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -68976,7 +69217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -69034,7 +69275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -69092,7 +69333,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -69150,7 +69391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -69208,7 +69449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>108</v>
       </c>
@@ -69266,7 +69507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>109</v>
       </c>
@@ -69324,7 +69565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>110</v>
       </c>
@@ -69382,7 +69623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -69440,7 +69681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>116</v>
       </c>
@@ -69498,7 +69739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>145</v>
       </c>
@@ -69556,7 +69797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -69614,7 +69855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -69672,7 +69913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>151</v>
       </c>
@@ -69730,7 +69971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -69788,7 +70029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>153</v>
       </c>
@@ -69846,7 +70087,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>154</v>
       </c>
@@ -69904,7 +70145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>155</v>
       </c>
@@ -69962,7 +70203,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -70020,7 +70261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>157</v>
       </c>
@@ -70078,7 +70319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>161</v>
       </c>
@@ -70136,7 +70377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>162</v>
       </c>
@@ -70194,7 +70435,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>175</v>
       </c>
@@ -70252,7 +70493,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>177</v>
       </c>
@@ -70310,7 +70551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>178</v>
       </c>
@@ -70368,7 +70609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -70426,7 +70667,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>180</v>
       </c>
@@ -70484,7 +70725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>181</v>
       </c>
@@ -70542,7 +70783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -70600,7 +70841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -70658,7 +70899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>187</v>
       </c>
@@ -70716,7 +70957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>188</v>
       </c>
@@ -70774,7 +71015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>189</v>
       </c>
@@ -70832,7 +71073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>191</v>
       </c>
@@ -70890,7 +71131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>192</v>
       </c>
@@ -70948,7 +71189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>193</v>
       </c>
@@ -71006,7 +71247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>194</v>
       </c>
@@ -71064,7 +71305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>195</v>
       </c>
@@ -71093,7 +71334,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>196</v>
       </c>
@@ -71122,7 +71363,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>197</v>
       </c>
@@ -71151,7 +71392,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>198</v>
       </c>
@@ -71180,7 +71421,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>199</v>
       </c>
@@ -71209,7 +71450,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>200</v>
       </c>
@@ -71238,7 +71479,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>201</v>
       </c>
@@ -71267,7 +71508,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>203</v>
       </c>
@@ -71296,7 +71537,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>205</v>
       </c>
@@ -71325,7 +71566,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>206</v>
       </c>
@@ -71354,7 +71595,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>207</v>
       </c>
@@ -71383,7 +71624,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>209</v>
       </c>
@@ -71412,7 +71653,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>211</v>
       </c>
@@ -71441,7 +71682,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>229</v>
       </c>
@@ -71470,7 +71711,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>230</v>
       </c>
@@ -71499,7 +71740,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>231</v>
       </c>
@@ -71528,7 +71769,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>232</v>
       </c>
@@ -71557,7 +71798,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>233</v>
       </c>
@@ -71586,7 +71827,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>234</v>
       </c>
@@ -71615,7 +71856,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>235</v>
       </c>
@@ -71644,7 +71885,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>236</v>
       </c>
@@ -71673,7 +71914,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>237</v>
       </c>
@@ -71702,7 +71943,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>59</v>
       </c>
@@ -71731,7 +71972,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>67</v>
       </c>
@@ -71760,7 +72001,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>69</v>
       </c>
@@ -71789,7 +72030,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>76</v>
       </c>
@@ -71818,7 +72059,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>78</v>
       </c>
@@ -71847,7 +72088,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>79</v>
       </c>
@@ -71876,7 +72117,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>83</v>
       </c>
@@ -71905,7 +72146,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>85</v>
       </c>
@@ -71934,7 +72175,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>86</v>
       </c>
@@ -71963,7 +72204,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>87</v>
       </c>
@@ -71992,7 +72233,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>89</v>
       </c>
@@ -72021,7 +72262,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>90</v>
       </c>
@@ -72050,7 +72291,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>113</v>
       </c>
@@ -72079,7 +72320,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>114</v>
       </c>
@@ -72108,7 +72349,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>115</v>
       </c>
@@ -72137,7 +72378,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>117</v>
       </c>
@@ -72166,7 +72407,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -72195,7 +72436,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>121</v>
       </c>
@@ -72224,7 +72465,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>124</v>
       </c>
@@ -72253,7 +72494,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>125</v>
       </c>
@@ -72282,7 +72523,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>126</v>
       </c>
@@ -72311,7 +72552,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>132</v>
       </c>
@@ -72340,7 +72581,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>133</v>
       </c>
@@ -72369,7 +72610,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>135</v>
       </c>
@@ -72398,7 +72639,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>136</v>
       </c>
@@ -72427,7 +72668,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>137</v>
       </c>
@@ -72456,7 +72697,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>138</v>
       </c>
@@ -72485,7 +72726,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>141</v>
       </c>
@@ -72514,7 +72755,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>144</v>
       </c>
@@ -72543,7 +72784,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>158</v>
       </c>
@@ -72572,7 +72813,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>159</v>
       </c>
@@ -72601,7 +72842,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>160</v>
       </c>
@@ -72630,7 +72871,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>168</v>
       </c>
@@ -72659,7 +72900,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>169</v>
       </c>
@@ -72688,7 +72929,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>170</v>
       </c>
@@ -72717,7 +72958,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>213</v>
       </c>
@@ -72746,7 +72987,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>218</v>
       </c>
@@ -72775,7 +73016,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>224</v>
       </c>
@@ -72804,7 +73045,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -72833,7 +73074,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>227</v>
       </c>
@@ -72862,7 +73103,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>91</v>
       </c>
@@ -72891,7 +73132,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>95</v>
       </c>
@@ -72920,7 +73161,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>96</v>
       </c>
@@ -72949,7 +73190,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>98</v>
       </c>
@@ -72978,7 +73219,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>100</v>
       </c>
@@ -73007,7 +73248,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>101</v>
       </c>
@@ -73036,7 +73277,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>102</v>
       </c>
@@ -73065,7 +73306,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>103</v>
       </c>
@@ -73094,7 +73335,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>104</v>
       </c>
@@ -73123,7 +73364,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>105</v>
       </c>
@@ -73152,7 +73393,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>106</v>
       </c>
@@ -73181,7 +73422,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>107</v>
       </c>
@@ -73210,7 +73451,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>108</v>
       </c>
@@ -73239,7 +73480,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>109</v>
       </c>
@@ -73268,7 +73509,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>110</v>
       </c>
@@ -73297,7 +73538,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>112</v>
       </c>
@@ -73326,7 +73567,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>116</v>
       </c>
@@ -73355,7 +73596,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>145</v>
       </c>
@@ -73384,7 +73625,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>147</v>
       </c>
@@ -73413,7 +73654,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>149</v>
       </c>
@@ -73442,7 +73683,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>151</v>
       </c>
@@ -73471,7 +73712,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>152</v>
       </c>
@@ -73500,7 +73741,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>153</v>
       </c>
@@ -73529,7 +73770,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>154</v>
       </c>
@@ -73558,7 +73799,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>155</v>
       </c>
@@ -73587,7 +73828,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>156</v>
       </c>
@@ -73616,7 +73857,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>157</v>
       </c>
@@ -73645,7 +73886,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>161</v>
       </c>
@@ -73674,7 +73915,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>162</v>
       </c>
@@ -73703,7 +73944,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>175</v>
       </c>
@@ -73732,7 +73973,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>177</v>
       </c>
@@ -73761,7 +74002,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>178</v>
       </c>
@@ -73790,7 +74031,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>179</v>
       </c>
@@ -73819,7 +74060,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>180</v>
       </c>
@@ -73848,7 +74089,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>181</v>
       </c>
@@ -73877,7 +74118,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>182</v>
       </c>
@@ -73906,7 +74147,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>183</v>
       </c>
@@ -73935,7 +74176,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>187</v>
       </c>
@@ -73964,7 +74205,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>188</v>
       </c>
@@ -73993,7 +74234,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>189</v>
       </c>
@@ -74022,7 +74263,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>191</v>
       </c>
@@ -74051,7 +74292,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>192</v>
       </c>
@@ -74080,7 +74321,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>193</v>
       </c>
@@ -74109,7 +74350,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>194</v>
       </c>
@@ -74138,7 +74379,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>195</v>
       </c>
@@ -74167,7 +74408,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>196</v>
       </c>
@@ -74196,7 +74437,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>197</v>
       </c>
@@ -74225,7 +74466,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>198</v>
       </c>
@@ -74254,7 +74495,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>199</v>
       </c>
@@ -74283,7 +74524,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>200</v>
       </c>
@@ -74312,7 +74553,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>201</v>
       </c>
@@ -74341,7 +74582,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>203</v>
       </c>
@@ -74370,7 +74611,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>205</v>
       </c>
@@ -74399,7 +74640,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>206</v>
       </c>
@@ -74428,7 +74669,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
@@ -74457,7 +74698,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>209</v>
       </c>
@@ -74486,7 +74727,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>211</v>
       </c>
@@ -74515,7 +74756,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>229</v>
       </c>
@@ -74544,7 +74785,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>230</v>
       </c>
@@ -74573,7 +74814,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>231</v>
       </c>
@@ -74602,7 +74843,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>232</v>
       </c>
@@ -74631,7 +74872,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>233</v>
       </c>
@@ -74660,7 +74901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>234</v>
       </c>
@@ -74689,7 +74930,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>235</v>
       </c>
@@ -74718,7 +74959,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>236</v>
       </c>
@@ -74747,7 +74988,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>237</v>
       </c>
@@ -74777,8 +75018,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I257"/>
-  <sortState ref="A2:I257">
+  <autoFilter ref="A1:I257" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I257">
     <sortCondition ref="I2:I257"/>
     <sortCondition ref="C2:C257"/>
   </sortState>
@@ -74790,24 +75031,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>298</v>
       </c>
@@ -74818,7 +75059,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -74829,7 +75070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -74840,7 +75081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -74851,7 +75092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -74862,7 +75103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -74873,7 +75114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -74884,7 +75125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -74895,7 +75136,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -74906,7 +75147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -74917,7 +75158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -74928,7 +75169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -74939,7 +75180,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -74950,7 +75191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -74961,7 +75202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -74972,7 +75213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -74983,7 +75224,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -74994,7 +75235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -75005,7 +75246,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -75016,7 +75257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -75027,7 +75268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -75038,7 +75279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -75049,7 +75290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -75060,7 +75301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -75071,7 +75312,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -75082,7 +75323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -75093,7 +75334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -75104,7 +75345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -75115,7 +75356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -75126,7 +75367,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -75137,7 +75378,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -75148,7 +75389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -75159,7 +75400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -75170,7 +75411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -75181,7 +75422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -75192,7 +75433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -75215,19 +75456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AC96" sqref="AC96"/>
+    <sheetView topLeftCell="A45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="8" width="9.44140625" customWidth="1"/>
+    <col min="7" max="8" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>268</v>
       </c>
@@ -75236,7 +75477,7 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -75259,7 +75500,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -75287,7 +75528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -75315,7 +75556,7 @@
         <v>85.294117647058826</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -75343,7 +75584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>7</v>
       </c>
@@ -75371,7 +75612,7 @@
         <v>94.117647058823522</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>9</v>
       </c>
@@ -75399,7 +75640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -75427,7 +75668,7 @@
         <v>82.35294117647058</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -75455,7 +75696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>15</v>
       </c>
@@ -75483,7 +75724,7 @@
         <v>98.529411764705884</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>17</v>
       </c>
@@ -75511,7 +75752,7 @@
         <v>97.058823529411768</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>19</v>
       </c>
@@ -75539,7 +75780,7 @@
         <v>82.35294117647058</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -75567,7 +75808,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -75595,7 +75836,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>6</v>
       </c>
@@ -75623,7 +75864,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -75651,7 +75892,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -75679,7 +75920,7 @@
         <v>98.333333333333329</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -75707,7 +75948,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -75735,7 +75976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>16</v>
       </c>
@@ -75763,7 +76004,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -75791,7 +76032,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -75819,7 +76060,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -75847,7 +76088,7 @@
         <v>99.21875</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -75874,7 +76115,7 @@
         <v>89.0625</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>6</v>
       </c>
@@ -75904,7 +76145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -75931,7 +76172,7 @@
         <v>96.09375</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -75958,7 +76199,7 @@
         <v>99.21875</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -75985,7 +76226,7 @@
         <v>82.8125</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>14</v>
       </c>
@@ -76012,7 +76253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -76039,7 +76280,7 @@
         <v>97.65625</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -76066,7 +76307,7 @@
         <v>96.09375</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -76093,7 +76334,7 @@
         <v>89.0625</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>269</v>
       </c>
@@ -76102,7 +76343,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>2</v>
       </c>
@@ -76125,7 +76366,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -76153,7 +76394,7 @@
         <v>95.588235294117652</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -76181,7 +76422,7 @@
         <v>94.117647058823522</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -76209,7 +76450,7 @@
         <v>66.17647058823529</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -76237,7 +76478,7 @@
         <v>79.411764705882348</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -76265,7 +76506,7 @@
         <v>94.117647058823522</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -76293,7 +76534,7 @@
         <v>95.588235294117652</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -76321,7 +76562,7 @@
         <v>88.235294117647058</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
@@ -76349,7 +76590,7 @@
         <v>70.588235294117652</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -76377,7 +76618,7 @@
         <v>64.705882352941174</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>19</v>
       </c>
@@ -76405,7 +76646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -76433,7 +76674,7 @@
         <v>96.666666666666671</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -76461,7 +76702,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
@@ -76489,7 +76730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -76517,7 +76758,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>10</v>
       </c>
@@ -76545,7 +76786,7 @@
         <v>88.333333333333329</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -76573,7 +76814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -76601,7 +76842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -76629,7 +76870,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -76657,7 +76898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -76685,7 +76926,7 @@
         <v>91.666666666666657</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -76712,7 +76953,7 @@
         <v>96.09375</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -76739,7 +76980,7 @@
         <v>94.53125</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -76766,7 +77007,7 @@
         <v>65.625</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -76793,7 +77034,7 @@
         <v>83.59375</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>10</v>
       </c>
@@ -76820,7 +77061,7 @@
         <v>91.40625</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -76847,7 +77088,7 @@
         <v>92.96875</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>14</v>
       </c>
@@ -76874,7 +77115,7 @@
         <v>89.0625</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>16</v>
       </c>
@@ -76901,7 +77142,7 @@
         <v>76.5625</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>18</v>
       </c>
@@ -76928,7 +77169,7 @@
         <v>71.875</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20</v>
       </c>
@@ -76955,7 +77196,7 @@
         <v>82.8125</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>270</v>
       </c>
@@ -76964,7 +77205,7 @@
       </c>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>2</v>
       </c>
@@ -76987,7 +77228,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -77015,7 +77256,7 @@
         <v>89.705882352941174</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -77043,7 +77284,7 @@
         <v>76.470588235294116</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -77071,7 +77312,7 @@
         <v>58.82352941176471</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7</v>
       </c>
@@ -77099,7 +77340,7 @@
         <v>64.705882352941174</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>9</v>
       </c>
@@ -77127,7 +77368,7 @@
         <v>57.352941176470587</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -77155,7 +77396,7 @@
         <v>44.117647058823529</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>13</v>
       </c>
@@ -77183,7 +77424,7 @@
         <v>85.294117647058826</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15</v>
       </c>
@@ -77211,7 +77452,7 @@
         <v>63.235294117647058</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>17</v>
       </c>
@@ -77239,7 +77480,7 @@
         <v>88.235294117647058</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>19</v>
       </c>
@@ -77267,7 +77508,7 @@
         <v>54.411764705882348</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -77295,7 +77536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -77323,7 +77564,7 @@
         <v>83.333333333333343</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -77351,7 +77592,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8</v>
       </c>
@@ -77379,7 +77620,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>10</v>
       </c>
@@ -77407,7 +77648,7 @@
         <v>63.333333333333329</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -77435,7 +77676,7 @@
         <v>55.000000000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>14</v>
       </c>
@@ -77463,7 +77704,7 @@
         <v>86.666666666666671</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -77491,7 +77732,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>18</v>
       </c>
@@ -77519,7 +77760,7 @@
         <v>93.333333333333329</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20</v>
       </c>
@@ -77547,7 +77788,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -77574,7 +77815,7 @@
         <v>94.53125</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -77601,7 +77842,7 @@
         <v>79.6875</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -77628,7 +77869,7 @@
         <v>64.0625</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
@@ -77655,7 +77896,7 @@
         <v>67.1875</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>10</v>
       </c>
@@ -77682,7 +77923,7 @@
         <v>60.15625</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12</v>
       </c>
@@ -77709,7 +77950,7 @@
         <v>49.21875</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -77736,7 +77977,7 @@
         <v>85.9375</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
@@ -77763,7 +78004,7 @@
         <v>66.40625</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18</v>
       </c>
@@ -77790,7 +78031,7 @@
         <v>90.625</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -77817,7 +78058,7 @@
         <v>64.0625</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E107" s="1" t="s">
         <v>274</v>
       </c>
@@ -77825,7 +78066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E108" s="1" t="s">
         <v>275</v>
       </c>
@@ -77834,7 +78075,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A49:F68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A49:F68">
     <sortCondition ref="B49:B68"/>
     <sortCondition ref="C49:C68"/>
   </sortState>
@@ -77850,34 +78091,47 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE26BF-1432-45C3-8BA2-A7C34DC38FE9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AK257"/>
   <sheetViews>
     <sheetView topLeftCell="AC1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875"/>
-    <col min="4" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125"/>
+    <col min="4" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -77942,7 +78196,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -78046,7 +78300,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>67</v>
       </c>
@@ -78105,67 +78359,67 @@
         <v>64</v>
       </c>
       <c r="W3">
-        <f>((SUMIFS(D:D,$C:$C,$V3))/128)*100</f>
+        <f t="shared" ref="W3:AK4" si="0">((SUMIFS(D:D,$C:$C,$V3))/128)*100</f>
         <v>43.75</v>
       </c>
       <c r="X3">
-        <f>((SUMIFS(E:E,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>89.84375</v>
       </c>
       <c r="Y3">
-        <f>((SUMIFS(F:F,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>86.71875</v>
       </c>
       <c r="Z3">
-        <f>((SUMIFS(G:G,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>67.1875</v>
       </c>
       <c r="AA3">
-        <f>((SUMIFS(H:H,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>21.09375</v>
       </c>
       <c r="AB3">
-        <f>((SUMIFS(I:I,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>43.75</v>
       </c>
       <c r="AC3">
-        <f>((SUMIFS(J:J,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>21.875</v>
       </c>
       <c r="AD3">
-        <f>((SUMIFS(K:K,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>46.09375</v>
       </c>
       <c r="AE3">
-        <f>((SUMIFS(L:L,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>35.9375</v>
       </c>
       <c r="AF3">
-        <f>((SUMIFS(M:M,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>39.0625</v>
       </c>
       <c r="AG3">
-        <f>((SUMIFS(N:N,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>38.28125</v>
       </c>
       <c r="AH3">
-        <f>((SUMIFS(O:O,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>50.78125</v>
       </c>
       <c r="AI3">
-        <f>((SUMIFS(P:P,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>36.71875</v>
       </c>
       <c r="AJ3">
-        <f>((SUMIFS(Q:Q,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>42.1875</v>
       </c>
       <c r="AK3">
-        <f>((SUMIFS(R:R,$C:$C,$V3))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>27.34375</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -78224,67 +78478,67 @@
         <v>66</v>
       </c>
       <c r="W4">
-        <f>((SUMIFS(D:D,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>64.84375</v>
       </c>
       <c r="X4">
-        <f>((SUMIFS(E:E,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>96.09375</v>
       </c>
       <c r="Y4">
-        <f>((SUMIFS(F:F,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>95.3125</v>
       </c>
       <c r="Z4">
-        <f>((SUMIFS(G:G,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>89.84375</v>
       </c>
       <c r="AA4">
-        <f>((SUMIFS(H:H,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>66.40625</v>
       </c>
       <c r="AB4">
-        <f>((SUMIFS(I:I,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>59.375</v>
       </c>
       <c r="AC4">
-        <f>((SUMIFS(J:J,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>17.96875</v>
       </c>
       <c r="AD4">
-        <f>((SUMIFS(K:K,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>50.78125</v>
       </c>
       <c r="AE4">
-        <f>((SUMIFS(L:L,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>44.53125</v>
       </c>
       <c r="AF4">
-        <f>((SUMIFS(M:M,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>39.0625</v>
       </c>
       <c r="AG4">
-        <f>((SUMIFS(N:N,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>53.125</v>
       </c>
       <c r="AH4">
-        <f>((SUMIFS(O:O,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>61.71875</v>
       </c>
       <c r="AI4">
-        <f>((SUMIFS(P:P,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>54.6875</v>
       </c>
       <c r="AJ4">
-        <f>((SUMIFS(Q:Q,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>70.3125</v>
       </c>
       <c r="AK4">
-        <f>((SUMIFS(R:R,$C:$C,$V4))/128)*100</f>
+        <f t="shared" si="0"/>
         <v>35.9375</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>73</v>
       </c>
@@ -78340,7 +78594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>76</v>
       </c>
@@ -78396,7 +78650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>78</v>
       </c>
@@ -78452,7 +78706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -78511,7 +78765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>80</v>
       </c>
@@ -78567,7 +78821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
@@ -78626,7 +78880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>83</v>
       </c>
@@ -78682,7 +78936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>85</v>
       </c>
@@ -78738,7 +78992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>86</v>
       </c>
@@ -78794,7 +79048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>87</v>
       </c>
@@ -78850,7 +79104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>89</v>
       </c>
@@ -78906,7 +79160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>90</v>
       </c>
@@ -78962,7 +79216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
@@ -79018,7 +79272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>114</v>
       </c>
@@ -79074,7 +79328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>115</v>
       </c>
@@ -79130,7 +79384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>117</v>
       </c>
@@ -79186,7 +79440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>120</v>
       </c>
@@ -79242,7 +79496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>121</v>
       </c>
@@ -79298,7 +79552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>123</v>
       </c>
@@ -79354,7 +79608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>124</v>
       </c>
@@ -79410,7 +79664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>125</v>
       </c>
@@ -79466,7 +79720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>126</v>
       </c>
@@ -79522,7 +79776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>127</v>
       </c>
@@ -79578,7 +79832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>129</v>
       </c>
@@ -79634,7 +79888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>130</v>
       </c>
@@ -79690,7 +79944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>131</v>
       </c>
@@ -79746,7 +80000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>132</v>
       </c>
@@ -79802,7 +80056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>133</v>
       </c>
@@ -79858,7 +80112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>135</v>
       </c>
@@ -79914,7 +80168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>136</v>
       </c>
@@ -79970,7 +80224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>137</v>
       </c>
@@ -80026,7 +80280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>138</v>
       </c>
@@ -80082,7 +80336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>140</v>
       </c>
@@ -80138,7 +80392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>141</v>
       </c>
@@ -80194,7 +80448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>142</v>
       </c>
@@ -80250,7 +80504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>143</v>
       </c>
@@ -80306,7 +80560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>144</v>
       </c>
@@ -80362,7 +80616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>158</v>
       </c>
@@ -80418,7 +80672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>159</v>
       </c>
@@ -80474,7 +80728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>160</v>
       </c>
@@ -80530,7 +80784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>163</v>
       </c>
@@ -80586,7 +80840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>166</v>
       </c>
@@ -80642,7 +80896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>168</v>
       </c>
@@ -80698,7 +80952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>169</v>
       </c>
@@ -80754,7 +81008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>170</v>
       </c>
@@ -80810,7 +81064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>172</v>
       </c>
@@ -80866,7 +81120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>173</v>
       </c>
@@ -80922,7 +81176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>213</v>
       </c>
@@ -80978,7 +81232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
@@ -81034,7 +81288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>218</v>
       </c>
@@ -81090,7 +81344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>220</v>
       </c>
@@ -81146,7 +81400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>222</v>
       </c>
@@ -81202,7 +81456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>224</v>
       </c>
@@ -81258,7 +81512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>225</v>
       </c>
@@ -81314,7 +81568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>226</v>
       </c>
@@ -81370,7 +81624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>227</v>
       </c>
@@ -81426,7 +81680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>228</v>
       </c>
@@ -81482,7 +81736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>59</v>
       </c>
@@ -81538,7 +81792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>67</v>
       </c>
@@ -81594,7 +81848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>69</v>
       </c>
@@ -81650,7 +81904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>73</v>
       </c>
@@ -81706,7 +81960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>76</v>
       </c>
@@ -81762,7 +82016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>78</v>
       </c>
@@ -81818,7 +82072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>79</v>
       </c>
@@ -81874,7 +82128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
@@ -81930,7 +82184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>82</v>
       </c>
@@ -81986,7 +82240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>83</v>
       </c>
@@ -82042,7 +82296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>85</v>
       </c>
@@ -82098,7 +82352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>86</v>
       </c>
@@ -82154,7 +82408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>87</v>
       </c>
@@ -82210,7 +82464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>89</v>
       </c>
@@ -82266,7 +82520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>90</v>
       </c>
@@ -82322,7 +82576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>113</v>
       </c>
@@ -82378,7 +82632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>114</v>
       </c>
@@ -82434,7 +82688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>115</v>
       </c>
@@ -82490,7 +82744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>117</v>
       </c>
@@ -82546,7 +82800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>120</v>
       </c>
@@ -82602,7 +82856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>121</v>
       </c>
@@ -82658,7 +82912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>123</v>
       </c>
@@ -82714,7 +82968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>124</v>
       </c>
@@ -82770,7 +83024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>125</v>
       </c>
@@ -82826,7 +83080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>126</v>
       </c>
@@ -82882,7 +83136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>127</v>
       </c>
@@ -82938,7 +83192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>129</v>
       </c>
@@ -82994,7 +83248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>130</v>
       </c>
@@ -83050,7 +83304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>131</v>
       </c>
@@ -83106,7 +83360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>132</v>
       </c>
@@ -83162,7 +83416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>133</v>
       </c>
@@ -83218,7 +83472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>135</v>
       </c>
@@ -83274,7 +83528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>136</v>
       </c>
@@ -83330,7 +83584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>137</v>
       </c>
@@ -83386,7 +83640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>138</v>
       </c>
@@ -83442,7 +83696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>140</v>
       </c>
@@ -83498,7 +83752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>141</v>
       </c>
@@ -83554,7 +83808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>142</v>
       </c>
@@ -83610,7 +83864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>143</v>
       </c>
@@ -83666,7 +83920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>144</v>
       </c>
@@ -83722,7 +83976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>158</v>
       </c>
@@ -83778,7 +84032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>159</v>
       </c>
@@ -83834,7 +84088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>160</v>
       </c>
@@ -83890,7 +84144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>163</v>
       </c>
@@ -83946,7 +84200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>166</v>
       </c>
@@ -84002,7 +84256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>168</v>
       </c>
@@ -84058,7 +84312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>169</v>
       </c>
@@ -84114,7 +84368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>170</v>
       </c>
@@ -84170,7 +84424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>172</v>
       </c>
@@ -84226,7 +84480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>173</v>
       </c>
@@ -84282,7 +84536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>213</v>
       </c>
@@ -84338,7 +84592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>216</v>
       </c>
@@ -84394,7 +84648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>218</v>
       </c>
@@ -84450,7 +84704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>220</v>
       </c>
@@ -84506,7 +84760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>222</v>
       </c>
@@ -84562,7 +84816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>224</v>
       </c>
@@ -84618,7 +84872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>225</v>
       </c>
@@ -84674,7 +84928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>226</v>
       </c>
@@ -84730,7 +84984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>227</v>
       </c>
@@ -84786,7 +85040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>228</v>
       </c>
@@ -84842,7 +85096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>91</v>
       </c>
@@ -84898,7 +85152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>95</v>
       </c>
@@ -84954,7 +85208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>96</v>
       </c>
@@ -85010,7 +85264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>98</v>
       </c>
@@ -85066,7 +85320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>100</v>
       </c>
@@ -85122,7 +85376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>101</v>
       </c>
@@ -85178,7 +85432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>102</v>
       </c>
@@ -85234,7 +85488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>103</v>
       </c>
@@ -85290,7 +85544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>104</v>
       </c>
@@ -85346,7 +85600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>105</v>
       </c>
@@ -85402,7 +85656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>106</v>
       </c>
@@ -85458,7 +85712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>107</v>
       </c>
@@ -85514,7 +85768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
@@ -85570,7 +85824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>109</v>
       </c>
@@ -85626,7 +85880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>110</v>
       </c>
@@ -85682,7 +85936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>112</v>
       </c>
@@ -85738,7 +85992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>116</v>
       </c>
@@ -85794,7 +86048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>145</v>
       </c>
@@ -85850,7 +86104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>147</v>
       </c>
@@ -85906,7 +86160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>149</v>
       </c>
@@ -85962,7 +86216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>151</v>
       </c>
@@ -86018,7 +86272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>152</v>
       </c>
@@ -86074,7 +86328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>153</v>
       </c>
@@ -86130,7 +86384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>154</v>
       </c>
@@ -86186,7 +86440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>155</v>
       </c>
@@ -86242,7 +86496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>156</v>
       </c>
@@ -86298,7 +86552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>157</v>
       </c>
@@ -86354,7 +86608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>161</v>
       </c>
@@ -86410,7 +86664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>162</v>
       </c>
@@ -86466,7 +86720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>175</v>
       </c>
@@ -86522,7 +86776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>177</v>
       </c>
@@ -86578,7 +86832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>178</v>
       </c>
@@ -86634,7 +86888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>179</v>
       </c>
@@ -86690,7 +86944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>180</v>
       </c>
@@ -86746,7 +87000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>181</v>
       </c>
@@ -86802,7 +87056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>182</v>
       </c>
@@ -86858,7 +87112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>183</v>
       </c>
@@ -86914,7 +87168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>184</v>
       </c>
@@ -86970,7 +87224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>187</v>
       </c>
@@ -87026,7 +87280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>188</v>
       </c>
@@ -87082,7 +87336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>189</v>
       </c>
@@ -87138,7 +87392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>191</v>
       </c>
@@ -87194,7 +87448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>192</v>
       </c>
@@ -87250,7 +87504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>193</v>
       </c>
@@ -87306,7 +87560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>194</v>
       </c>
@@ -87362,7 +87616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>195</v>
       </c>
@@ -87418,7 +87672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>196</v>
       </c>
@@ -87474,7 +87728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>197</v>
       </c>
@@ -87530,7 +87784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>198</v>
       </c>
@@ -87586,7 +87840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>199</v>
       </c>
@@ -87642,7 +87896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>200</v>
       </c>
@@ -87698,7 +87952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>201</v>
       </c>
@@ -87754,7 +88008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>203</v>
       </c>
@@ -87810,7 +88064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>205</v>
       </c>
@@ -87866,7 +88120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>206</v>
       </c>
@@ -87922,7 +88176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>207</v>
       </c>
@@ -87978,7 +88232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>208</v>
       </c>
@@ -88034,7 +88288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>209</v>
       </c>
@@ -88090,7 +88344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>211</v>
       </c>
@@ -88146,7 +88400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>229</v>
       </c>
@@ -88202,7 +88456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>230</v>
       </c>
@@ -88258,7 +88512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>231</v>
       </c>
@@ -88314,7 +88568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>232</v>
       </c>
@@ -88370,7 +88624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>233</v>
       </c>
@@ -88426,7 +88680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>234</v>
       </c>
@@ -88482,7 +88736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>235</v>
       </c>
@@ -88538,7 +88792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>236</v>
       </c>
@@ -88594,7 +88848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>237</v>
       </c>
@@ -88650,7 +88904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
         <v>91</v>
       </c>
@@ -88706,7 +88960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
         <v>95</v>
       </c>
@@ -88762,7 +89016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>96</v>
       </c>
@@ -88818,7 +89072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>98</v>
       </c>
@@ -88874,7 +89128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
         <v>100</v>
       </c>
@@ -88930,7 +89184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
         <v>101</v>
       </c>
@@ -88986,7 +89240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
         <v>102</v>
       </c>
@@ -89042,7 +89296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>103</v>
       </c>
@@ -89098,7 +89352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
         <v>104</v>
       </c>
@@ -89154,7 +89408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>105</v>
       </c>
@@ -89210,7 +89464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>106</v>
       </c>
@@ -89266,7 +89520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>107</v>
       </c>
@@ -89322,7 +89576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
         <v>108</v>
       </c>
@@ -89378,7 +89632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
         <v>109</v>
       </c>
@@ -89434,7 +89688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
         <v>110</v>
       </c>
@@ -89490,7 +89744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>112</v>
       </c>
@@ -89546,7 +89800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
         <v>116</v>
       </c>
@@ -89602,7 +89856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
         <v>145</v>
       </c>
@@ -89658,7 +89912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
         <v>147</v>
       </c>
@@ -89714,7 +89968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
         <v>149</v>
       </c>
@@ -89770,7 +90024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>151</v>
       </c>
@@ -89826,7 +90080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>152</v>
       </c>
@@ -89882,7 +90136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>153</v>
       </c>
@@ -89938,7 +90192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>154</v>
       </c>
@@ -89994,7 +90248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
         <v>155</v>
       </c>
@@ -90050,7 +90304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
         <v>156</v>
       </c>
@@ -90106,7 +90360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
         <v>157</v>
       </c>
@@ -90162,7 +90416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
         <v>161</v>
       </c>
@@ -90218,7 +90472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
         <v>162</v>
       </c>
@@ -90274,7 +90528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
         <v>175</v>
       </c>
@@ -90330,7 +90584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
         <v>177</v>
       </c>
@@ -90386,7 +90640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
         <v>178</v>
       </c>
@@ -90442,7 +90696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>179</v>
       </c>
@@ -90498,7 +90752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>180</v>
       </c>
@@ -90554,7 +90808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>181</v>
       </c>
@@ -90610,7 +90864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>182</v>
       </c>
@@ -90666,7 +90920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>183</v>
       </c>
@@ -90722,7 +90976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>184</v>
       </c>
@@ -90778,7 +91032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>187</v>
       </c>
@@ -90834,7 +91088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
         <v>188</v>
       </c>
@@ -90890,7 +91144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>189</v>
       </c>
@@ -90946,7 +91200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>191</v>
       </c>
@@ -91002,7 +91256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
         <v>192</v>
       </c>
@@ -91058,7 +91312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
         <v>193</v>
       </c>
@@ -91114,7 +91368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
         <v>194</v>
       </c>
@@ -91170,7 +91424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
         <v>195</v>
       </c>
@@ -91226,7 +91480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>196</v>
       </c>
@@ -91282,7 +91536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>197</v>
       </c>
@@ -91338,7 +91592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
         <v>198</v>
       </c>
@@ -91394,7 +91648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>199</v>
       </c>
@@ -91450,7 +91704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>200</v>
       </c>
@@ -91506,7 +91760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
         <v>201</v>
       </c>
@@ -91562,7 +91816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>203</v>
       </c>
@@ -91618,7 +91872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>205</v>
       </c>
@@ -91674,7 +91928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>206</v>
       </c>
@@ -91730,7 +91984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
         <v>207</v>
       </c>
@@ -91786,7 +92040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>208</v>
       </c>
@@ -91842,7 +92096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>209</v>
       </c>
@@ -91898,7 +92152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
         <v>211</v>
       </c>
@@ -91954,7 +92208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
         <v>229</v>
       </c>
@@ -92010,7 +92264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
         <v>230</v>
       </c>
@@ -92066,7 +92320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>231</v>
       </c>
@@ -92122,7 +92376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>232</v>
       </c>
@@ -92178,7 +92432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>233</v>
       </c>
@@ -92234,7 +92488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>234</v>
       </c>
@@ -92290,7 +92544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>235</v>
       </c>
@@ -92346,7 +92600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>236</v>
       </c>
@@ -92402,7 +92656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
         <v>237</v>
       </c>
@@ -92464,17 +92718,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>